--- a/xlsx/import.xlsx
+++ b/xlsx/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONUR ISIKLAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\extension-for-envanter\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC4E5B4-04C8-4E14-8300-D866E745E282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD525C-10FD-4173-B200-D6537C02BEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,24 +486,24 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="10" width="45.85546875" customWidth="1"/>
-    <col min="11" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="8" width="29.7265625" customWidth="1"/>
+    <col min="9" max="10" width="45.81640625" customWidth="1"/>
+    <col min="11" max="12" width="18.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -591,7 +591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>

--- a/xlsx/import.xlsx
+++ b/xlsx/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\extension-for-envanter\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD525C-10FD-4173-B200-D6537C02BEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21475017-2105-4930-A3D6-23CB1EC78CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Hafta</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Şehirler arası</t>
   </si>
   <si>
-    <t>06 Ocak 2025 12:20:00</t>
-  </si>
-  <si>
-    <t>06 Ocak 2025 18:37:00</t>
-  </si>
-  <si>
     <t>Özel Kurum Çalışması</t>
   </si>
   <si>
@@ -119,12 +113,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>08 Mayıs 2025 14:25:00</t>
-  </si>
-  <si>
-    <t>08 Mayıs 2025 16:13:00</t>
   </si>
   <si>
     <t>01:48</t>
@@ -165,10 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,34 +555,34 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3">
+        <v>45663.513888888891</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45663.775694444441</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -605,31 +594,31 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45785.600694444445</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45785.675694444442</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
